--- a/pv_investment.xlsx
+++ b/pv_investment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e269ce536976a1eb/GoodNotes/S3 - BEFD/Final Project/Potential Projects/Lithium/Datasets/Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{50181814-E9C2-46C0-BB95-7EE446AB588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503D2112-7915-44B5-A5F7-B0D738F30281}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{50181814-E9C2-46C0-BB95-7EE446AB588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698B1565-75E1-42AC-ABB0-B7D887EF135A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Investment (billion USD)</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Investment_billion_USD</t>
   </si>
 </sst>
 </file>
@@ -37,7 +37,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -78,10 +78,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -440,10 +440,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
